--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1153286666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.345986</v>
+      </c>
+      <c r="I2">
+        <v>0.1212009326543938</v>
+      </c>
+      <c r="J2">
+        <v>0.1212009326543938</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.363728</v>
-      </c>
-      <c r="H2">
-        <v>1.091184</v>
-      </c>
-      <c r="I2">
-        <v>0.3031196334509865</v>
-      </c>
-      <c r="J2">
-        <v>0.3031196334509865</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.477357</v>
+        <v>0.1104363333333333</v>
       </c>
       <c r="N2">
-        <v>1.432071</v>
+        <v>0.331309</v>
       </c>
       <c r="O2">
-        <v>0.5962830755189217</v>
+        <v>0.2546765664720067</v>
       </c>
       <c r="P2">
-        <v>0.5962830755189216</v>
+        <v>0.2546765664720067</v>
       </c>
       <c r="Q2">
-        <v>0.173628106896</v>
+        <v>0.01273647507488889</v>
       </c>
       <c r="R2">
-        <v>1.562652962064</v>
+        <v>0.114628275674</v>
       </c>
       <c r="S2">
-        <v>0.1807451072843224</v>
+        <v>0.03086703738162594</v>
       </c>
       <c r="T2">
-        <v>0.1807451072843224</v>
+        <v>0.03086703738162594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H3">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I3">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J3">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.8377250000000001</v>
       </c>
       <c r="O3">
-        <v>0.3488103868028112</v>
+        <v>0.6439575340475562</v>
       </c>
       <c r="P3">
-        <v>0.3488103868028112</v>
+        <v>0.6439575340475563</v>
       </c>
       <c r="Q3">
-        <v>0.1015680129333333</v>
+        <v>0.03220456909444445</v>
       </c>
       <c r="R3">
-        <v>0.9141121164</v>
+        <v>0.28984112185</v>
       </c>
       <c r="S3">
-        <v>0.1057312765915649</v>
+        <v>0.07804825371638738</v>
       </c>
       <c r="T3">
-        <v>0.1057312765915649</v>
+        <v>0.07804825371638738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H4">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I4">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J4">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.131867</v>
       </c>
       <c r="O4">
-        <v>0.0549065376782671</v>
+        <v>0.101365899480437</v>
       </c>
       <c r="P4">
-        <v>0.05490653767826709</v>
+        <v>0.101365899480437</v>
       </c>
       <c r="Q4">
-        <v>0.01598790672533333</v>
+        <v>0.005069348429111112</v>
       </c>
       <c r="R4">
-        <v>0.143891160528</v>
+        <v>0.04562413586200001</v>
       </c>
       <c r="S4">
-        <v>0.0166432495750991</v>
+        <v>0.0122856415563805</v>
       </c>
       <c r="T4">
-        <v>0.0166432495750991</v>
+        <v>0.0122856415563805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.561989</v>
       </c>
       <c r="I5">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J5">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.477357</v>
+        <v>0.1104363333333333</v>
       </c>
       <c r="N5">
-        <v>1.432071</v>
+        <v>0.331309</v>
       </c>
       <c r="O5">
-        <v>0.5962830755189217</v>
+        <v>0.2546765664720067</v>
       </c>
       <c r="P5">
-        <v>0.5962830755189216</v>
+        <v>0.2546765664720067</v>
       </c>
       <c r="Q5">
-        <v>0.248542127691</v>
+        <v>0.05750011262233334</v>
       </c>
       <c r="R5">
-        <v>2.236879149219</v>
+        <v>0.5175010136010001</v>
       </c>
       <c r="S5">
-        <v>0.2587298470119903</v>
+        <v>0.1393523808844535</v>
       </c>
       <c r="T5">
-        <v>0.2587298470119902</v>
+        <v>0.1393523808844535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.561989</v>
       </c>
       <c r="I6">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J6">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.8377250000000001</v>
       </c>
       <c r="O6">
-        <v>0.3488103868028112</v>
+        <v>0.6439575340475562</v>
       </c>
       <c r="P6">
-        <v>0.3488103868028112</v>
+        <v>0.6439575340475563</v>
       </c>
       <c r="Q6">
         <v>0.1453908038916667</v>
@@ -818,10 +818,10 @@
         <v>1.308517235025</v>
       </c>
       <c r="S6">
-        <v>0.1513503597853176</v>
+        <v>0.3523567825698328</v>
       </c>
       <c r="T6">
-        <v>0.1513503597853176</v>
+        <v>0.3523567825698329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.561989</v>
       </c>
       <c r="I7">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J7">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.131867</v>
       </c>
       <c r="O7">
-        <v>0.0549065376782671</v>
+        <v>0.101365899480437</v>
       </c>
       <c r="P7">
-        <v>0.05490653767826709</v>
+        <v>0.101365899480437</v>
       </c>
       <c r="Q7">
         <v>0.02288608927366667</v>
@@ -880,10 +880,10 @@
         <v>0.205974803463</v>
       </c>
       <c r="S7">
-        <v>0.02382418800180306</v>
+        <v>0.05546477883211812</v>
       </c>
       <c r="T7">
-        <v>0.02382418800180306</v>
+        <v>0.05546477883211812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H8">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I8">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J8">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.477357</v>
+        <v>0.1104363333333333</v>
       </c>
       <c r="N8">
-        <v>1.432071</v>
+        <v>0.331309</v>
       </c>
       <c r="O8">
-        <v>0.5962830755189217</v>
+        <v>0.2546765664720067</v>
       </c>
       <c r="P8">
-        <v>0.5962830755189216</v>
+        <v>0.2546765664720067</v>
       </c>
       <c r="Q8">
-        <v>0.150633661087</v>
+        <v>0.03484903166188889</v>
       </c>
       <c r="R8">
-        <v>1.355702949783</v>
+        <v>0.3136412849570001</v>
       </c>
       <c r="S8">
-        <v>0.156808121222609</v>
+        <v>0.08445714820592733</v>
       </c>
       <c r="T8">
-        <v>0.156808121222609</v>
+        <v>0.08445714820592733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H9">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I9">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J9">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.8377250000000001</v>
       </c>
       <c r="O9">
-        <v>0.3488103868028112</v>
+        <v>0.6439575340475562</v>
       </c>
       <c r="P9">
-        <v>0.3488103868028112</v>
+        <v>0.6439575340475563</v>
       </c>
       <c r="Q9">
         <v>0.08811684876944445</v>
@@ -1004,10 +1004,10 @@
         <v>0.7930516389250001</v>
       </c>
       <c r="S9">
-        <v>0.09172875042592869</v>
+        <v>0.213552497761336</v>
       </c>
       <c r="T9">
-        <v>0.09172875042592868</v>
+        <v>0.213552497761336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H10">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I10">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J10">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.131867</v>
       </c>
       <c r="O10">
-        <v>0.0549065376782671</v>
+        <v>0.101365899480437</v>
       </c>
       <c r="P10">
-        <v>0.05490653767826709</v>
+        <v>0.101365899480437</v>
       </c>
       <c r="Q10">
         <v>0.01387054761011111</v>
@@ -1066,10 +1066,10 @@
         <v>0.124834928491</v>
       </c>
       <c r="S10">
-        <v>0.01443910010136494</v>
+        <v>0.0336154790919384</v>
       </c>
       <c r="T10">
-        <v>0.01443910010136493</v>
+        <v>0.0336154790919384</v>
       </c>
     </row>
   </sheetData>
